--- a/additional_docs/Chess_Positional_Bonus.xlsx
+++ b/additional_docs/Chess_Positional_Bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berne\workspace\m122_chess-project\additional_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EBB30-BF6D-40B2-A94B-41F793B9137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E35C0-0C35-47B4-956A-ECA79F6E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{248EC566-5EF4-4DD5-9D4C-C19EF7AB7D51}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="4" activeTab="7" xr2:uid="{248EC566-5EF4-4DD5-9D4C-C19EF7AB7D51}"/>
   </bookViews>
   <sheets>
     <sheet name="KNIGHT_POS_BONUS" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,17 +407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BFC143-C044-47DE-B21A-04E090D8A4BF}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>-0.5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>-0.4</v>
       </c>
@@ -469,7 +469,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>-0.2</v>
       </c>
@@ -495,7 +495,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>-0.1</v>
       </c>
@@ -521,7 +521,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>-0.1</v>
       </c>
@@ -547,7 +547,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>-0.2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>-0.4</v>
       </c>
@@ -599,7 +599,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>-0.5</v>
       </c>
@@ -651,13 +651,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>-0.2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>-0.1</v>
       </c>
@@ -709,7 +709,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0.1</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0.1</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>-0.1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>-0.2</v>
       </c>
@@ -891,13 +891,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>-0.4</v>
       </c>
@@ -923,7 +923,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>-0.2</v>
       </c>
@@ -949,7 +949,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>-0.2</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>-0.4</v>
       </c>
@@ -1131,13 +1131,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0.2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0.1</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0.1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>0.1</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1371,13 +1371,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>0.8</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0.6</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0.4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0.1</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1611,13 +1611,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>-0.5</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>-0.4</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>-0.2</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>-0.1</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>0.2</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>0.2</v>
       </c>
@@ -1851,13 +1851,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>-0.2</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>-0.1</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>-0.1</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>-0.1</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>-0.1</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>-0.2</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>-0.3</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>-0.4</v>
       </c>
@@ -2087,17 +2087,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C777BC-FDFE-4941-AB99-B022EC6458D2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="8" width="15.62890625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>0.1</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2279,9 +2279,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="80.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
